--- a/data/Datasheets/Departments.xlsx
+++ b/data/Datasheets/Departments.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Work/Workspace/TLU_Project_ScheduleManager/data/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7914048B-3219-A84E-A1AF-4C244CCC0504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C9436-55B6-9841-8066-FAD4547D0C69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{682B8E9D-8E4E-104C-8B56-66FCC1AD7565}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,21 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Thể chất</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>Triết, hùng biện, luận</t>
   </si>
 </sst>
 </file>
@@ -537,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CCFE5-B021-5044-8243-EAA571BACF07}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,6 +805,28 @@
         <v>51</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
